--- a/hw/Master BOM.xlsx
+++ b/hw/Master BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2690AA-2B46-41F5-A6FD-8C31B754718F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6DB189-C9A1-4D79-848D-D53DCAC1B0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="296">
   <si>
     <t>Description</t>
   </si>
@@ -890,6 +890,24 @@
   </si>
   <si>
     <t>TAPaulk Communications, LLC</t>
+  </si>
+  <si>
+    <t>AC110A</t>
+  </si>
+  <si>
+    <t>CONN PLUG STEREO 3.5MM 3COND</t>
+  </si>
+  <si>
+    <t>Amphenol Audio</t>
+  </si>
+  <si>
+    <t>889-1849-ND</t>
+  </si>
+  <si>
+    <t>KS3P</t>
+  </si>
+  <si>
+    <t>523-KS3P</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1266,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4816,8 +4834,108 @@
         <v>22</v>
       </c>
     </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B144" s="6"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" s="2">
+        <v>1</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E147" s="2">
+        <v>1</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>